--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H2">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I2">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J2">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.67364816592456</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N2">
-        <v>4.67364816592456</v>
+        <v>10.874051</v>
       </c>
       <c r="O2">
-        <v>0.04171636218071132</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P2">
-        <v>0.04171636218071132</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q2">
-        <v>217.7777025928085</v>
+        <v>253.7849499652713</v>
       </c>
       <c r="R2">
-        <v>217.7777025928085</v>
+        <v>1015.139799861085</v>
       </c>
       <c r="S2">
-        <v>0.02117422486515158</v>
+        <v>0.02021744117754518</v>
       </c>
       <c r="T2">
-        <v>0.02117422486515158</v>
+        <v>0.01321032460584274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H3">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I3">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J3">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.6552658854129</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N3">
-        <v>39.6552658854129</v>
+        <v>126.222638</v>
       </c>
       <c r="O3">
-        <v>0.3539576312375314</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P3">
-        <v>0.3539576312375314</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q3">
-        <v>1847.814040260298</v>
+        <v>1963.905072072621</v>
       </c>
       <c r="R3">
-        <v>1847.814040260298</v>
+        <v>11783.43043243573</v>
       </c>
       <c r="S3">
-        <v>0.1796604038504897</v>
+        <v>0.1564518907773854</v>
       </c>
       <c r="T3">
-        <v>0.1796604038504897</v>
+        <v>0.1533413831318044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H4">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I4">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J4">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>9.752994945328281</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N4">
-        <v>9.752994945328281</v>
+        <v>0.038558</v>
       </c>
       <c r="O4">
-        <v>0.08705393624885213</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P4">
-        <v>0.08705393624885213</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q4">
-        <v>454.4597190859982</v>
+        <v>0.5999260748216666</v>
       </c>
       <c r="R4">
-        <v>454.4597190859982</v>
+        <v>3.59955644893</v>
       </c>
       <c r="S4">
-        <v>0.04418649002865509</v>
+        <v>4.779231443882854E-05</v>
       </c>
       <c r="T4">
-        <v>0.04418649002865509</v>
+        <v>4.684212867422494E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5969398767797</v>
+        <v>46.6771675</v>
       </c>
       <c r="H5">
-        <v>46.5969398767797</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I5">
-        <v>0.5075760147403756</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J5">
-        <v>0.5075760147403756</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>57.9520249709885</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N5">
-        <v>57.9520249709885</v>
+        <v>0.381973</v>
       </c>
       <c r="O5">
-        <v>0.5172720703329052</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P5">
-        <v>0.5172720703329052</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q5">
-        <v>2700.387023310787</v>
+        <v>5.943139233825834</v>
       </c>
       <c r="R5">
-        <v>2700.387023310787</v>
+        <v>35.658835402955</v>
       </c>
       <c r="S5">
-        <v>0.2625548959960793</v>
+        <v>0.0004734522984372284</v>
       </c>
       <c r="T5">
-        <v>0.2625548959960793</v>
+        <v>0.0004640393281829899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.49773470975826</v>
+        <v>46.6771675</v>
       </c>
       <c r="H6">
-        <v>2.49773470975826</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I6">
-        <v>0.02720758558845996</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J6">
-        <v>0.02720758558845996</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.67364816592456</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N6">
-        <v>4.67364816592456</v>
+        <v>55.721141</v>
       </c>
       <c r="O6">
-        <v>0.04171636218071132</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P6">
-        <v>0.04171636218071132</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q6">
-        <v>11.67353324522781</v>
+        <v>866.9683439160391</v>
       </c>
       <c r="R6">
-        <v>11.67353324522781</v>
+        <v>5201.810063496234</v>
       </c>
       <c r="S6">
-        <v>0.001135001494470897</v>
+        <v>0.0690658823476918</v>
       </c>
       <c r="T6">
-        <v>0.001135001494470897</v>
+        <v>0.06769274486738501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.49773470975826</v>
+        <v>46.6771675</v>
       </c>
       <c r="H7">
-        <v>2.49773470975826</v>
+        <v>93.35433499999999</v>
       </c>
       <c r="I7">
-        <v>0.02720758558845996</v>
+        <v>0.4898929723558808</v>
       </c>
       <c r="J7">
-        <v>0.02720758558845996</v>
+        <v>0.3939504270570364</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.6552658854129</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N7">
-        <v>39.6552658854129</v>
+        <v>131.041107</v>
       </c>
       <c r="O7">
-        <v>0.3539576312375314</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P7">
-        <v>0.3539576312375314</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q7">
-        <v>99.04833402668842</v>
+        <v>3058.313850412211</v>
       </c>
       <c r="R7">
-        <v>99.04833402668842</v>
+        <v>12233.25540164884</v>
       </c>
       <c r="S7">
-        <v>0.009630332546583685</v>
+        <v>0.2436365134403824</v>
       </c>
       <c r="T7">
-        <v>0.009630332546583685</v>
+        <v>0.159195092995147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H8">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I8">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J8">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.752994945328281</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N8">
-        <v>9.752994945328281</v>
+        <v>10.874051</v>
       </c>
       <c r="O8">
-        <v>0.08705393624885213</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P8">
-        <v>0.08705393624885213</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q8">
-        <v>24.36039399904331</v>
+        <v>0.2121817324793334</v>
       </c>
       <c r="R8">
-        <v>24.36039399904331</v>
+        <v>1.273090394876</v>
       </c>
       <c r="S8">
-        <v>0.002368527421302981</v>
+        <v>1.690317607855618E-05</v>
       </c>
       <c r="T8">
-        <v>0.002368527421302981</v>
+        <v>1.656711457002661E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.49773470975826</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H9">
-        <v>2.49773470975826</v>
+        <v>0.117076</v>
       </c>
       <c r="I9">
-        <v>0.02720758558845996</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J9">
-        <v>0.02720758558845996</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.9520249709885</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N9">
-        <v>57.9520249709885</v>
+        <v>126.222638</v>
       </c>
       <c r="O9">
-        <v>0.5172720703329052</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P9">
-        <v>0.5172720703329052</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q9">
-        <v>144.7487842708154</v>
+        <v>1.641960174054222</v>
       </c>
       <c r="R9">
-        <v>144.7487842708154</v>
+        <v>14.777641566488</v>
       </c>
       <c r="S9">
-        <v>0.0140737241261024</v>
+        <v>0.0001308045778102908</v>
       </c>
       <c r="T9">
-        <v>0.0140737241261024</v>
+        <v>0.000192305968132483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>5.88457751260344</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H10">
-        <v>5.88457751260344</v>
+        <v>0.117076</v>
       </c>
       <c r="I10">
-        <v>0.06410014069972245</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J10">
-        <v>0.06410014069972245</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.67364816592456</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N10">
-        <v>4.67364816592456</v>
+        <v>0.038558</v>
       </c>
       <c r="O10">
-        <v>0.04171636218071132</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P10">
-        <v>0.04171636218071132</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q10">
-        <v>27.50244489901998</v>
+        <v>0.0005015796008888889</v>
       </c>
       <c r="R10">
-        <v>27.50244489901998</v>
+        <v>0.004514216408000001</v>
       </c>
       <c r="S10">
-        <v>0.002674024685264176</v>
+        <v>3.99576731331601E-08</v>
       </c>
       <c r="T10">
-        <v>0.002674024685264176</v>
+        <v>5.87448783890278E-08</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>5.88457751260344</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H11">
-        <v>5.88457751260344</v>
+        <v>0.117076</v>
       </c>
       <c r="I11">
-        <v>0.06410014069972245</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J11">
-        <v>0.06410014069972245</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>39.6552658854129</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N11">
-        <v>39.6552658854129</v>
+        <v>0.381973</v>
       </c>
       <c r="O11">
-        <v>0.3539576312375314</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P11">
-        <v>0.3539576312375314</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q11">
-        <v>233.3544858856111</v>
+        <v>0.004968874549777779</v>
       </c>
       <c r="R11">
-        <v>233.3544858856111</v>
+        <v>0.04471987094800001</v>
       </c>
       <c r="S11">
-        <v>0.02268873396406624</v>
+        <v>3.958387955727102E-07</v>
       </c>
       <c r="T11">
-        <v>0.02268873396406624</v>
+        <v>5.819533542427541E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>5.88457751260344</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H12">
-        <v>5.88457751260344</v>
+        <v>0.117076</v>
       </c>
       <c r="I12">
-        <v>0.06410014069972245</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J12">
-        <v>0.06410014069972245</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.752994945328281</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N12">
-        <v>9.752994945328281</v>
+        <v>55.721141</v>
       </c>
       <c r="O12">
-        <v>0.08705393624885213</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P12">
-        <v>0.08705393624885213</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q12">
-        <v>57.39225473581381</v>
+        <v>0.7248453670795556</v>
       </c>
       <c r="R12">
-        <v>57.39225473581381</v>
+        <v>6.523608303716</v>
       </c>
       <c r="S12">
-        <v>0.005580169562016089</v>
+        <v>5.774384404493815E-05</v>
       </c>
       <c r="T12">
-        <v>0.005580169562016089</v>
+        <v>8.489370952183388E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>5.88457751260344</v>
+        <v>0.03902533333333334</v>
       </c>
       <c r="H13">
-        <v>5.88457751260344</v>
+        <v>0.117076</v>
       </c>
       <c r="I13">
-        <v>0.06410014069972245</v>
+        <v>0.0004095843335790609</v>
       </c>
       <c r="J13">
-        <v>0.06410014069972245</v>
+        <v>0.0004940546167259357</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>57.9520249709885</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N13">
-        <v>57.9520249709885</v>
+        <v>131.041107</v>
       </c>
       <c r="O13">
-        <v>0.5172720703329052</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P13">
-        <v>0.5172720703329052</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q13">
-        <v>341.0231829541119</v>
+        <v>2.556961440522</v>
       </c>
       <c r="R13">
-        <v>341.0231829541119</v>
+        <v>15.341768643132</v>
       </c>
       <c r="S13">
-        <v>0.03315721248837595</v>
+        <v>0.00020369693917657</v>
       </c>
       <c r="T13">
-        <v>0.03315721248837595</v>
+        <v>0.0001996471262689605</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.6389151303161</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H14">
-        <v>34.6389151303161</v>
+        <v>12.642862</v>
       </c>
       <c r="I14">
-        <v>0.377318393509729</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J14">
-        <v>0.377318393509729</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.67364816592456</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N14">
-        <v>4.67364816592456</v>
+        <v>10.874051</v>
       </c>
       <c r="O14">
-        <v>0.04171636218071132</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P14">
-        <v>0.04171636218071132</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q14">
-        <v>161.8901021684183</v>
+        <v>22.91318769566033</v>
       </c>
       <c r="R14">
-        <v>161.8901021684183</v>
+        <v>137.479126173962</v>
       </c>
       <c r="S14">
-        <v>0.01574035076109601</v>
+        <v>0.001825348683956463</v>
       </c>
       <c r="T14">
-        <v>0.01574035076109601</v>
+        <v>0.001789057904669068</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.6389151303161</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H15">
-        <v>34.6389151303161</v>
+        <v>12.642862</v>
       </c>
       <c r="I15">
-        <v>0.377318393509729</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J15">
-        <v>0.377318393509729</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>39.6552658854129</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N15">
-        <v>39.6552658854129</v>
+        <v>126.222638</v>
       </c>
       <c r="O15">
-        <v>0.3539576312375314</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P15">
-        <v>0.3539576312375314</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q15">
-        <v>1373.615389474937</v>
+        <v>177.3128215011062</v>
       </c>
       <c r="R15">
-        <v>1373.615389474937</v>
+        <v>1595.815393509956</v>
       </c>
       <c r="S15">
-        <v>0.1335547247890544</v>
+        <v>0.01412539056872261</v>
       </c>
       <c r="T15">
-        <v>0.1335547247890544</v>
+        <v>0.02076683365399723</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.6389151303161</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H16">
-        <v>34.6389151303161</v>
+        <v>12.642862</v>
       </c>
       <c r="I16">
-        <v>0.377318393509729</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J16">
-        <v>0.377318393509729</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>9.752994945328281</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N16">
-        <v>9.752994945328281</v>
+        <v>0.038558</v>
       </c>
       <c r="O16">
-        <v>0.08705393624885213</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P16">
-        <v>0.08705393624885213</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q16">
-        <v>337.8331641776282</v>
+        <v>0.05416483033288889</v>
       </c>
       <c r="R16">
-        <v>337.8331641776282</v>
+        <v>0.487483472996</v>
       </c>
       <c r="S16">
-        <v>0.03284705137411525</v>
+        <v>4.31496931278529E-06</v>
       </c>
       <c r="T16">
-        <v>0.03284705137411525</v>
+        <v>6.343771487574402E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.6389151303161</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H17">
-        <v>34.6389151303161</v>
+        <v>12.642862</v>
       </c>
       <c r="I17">
-        <v>0.377318393509729</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J17">
-        <v>0.377318393509729</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>57.9520249709885</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N17">
-        <v>57.9520249709885</v>
+        <v>0.381973</v>
       </c>
       <c r="O17">
-        <v>0.5172720703329052</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P17">
-        <v>0.5172720703329052</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q17">
-        <v>2007.39527460003</v>
+        <v>0.5365813251917778</v>
       </c>
       <c r="R17">
-        <v>2007.39527460003</v>
+        <v>4.829231926726</v>
       </c>
       <c r="S17">
-        <v>0.1951762665854633</v>
+        <v>4.274603904021308E-05</v>
       </c>
       <c r="T17">
-        <v>0.1951762665854633</v>
+        <v>6.28442716536972E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.18471258276918</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H18">
-        <v>2.18471258276918</v>
+        <v>12.642862</v>
       </c>
       <c r="I18">
-        <v>0.02379786546171301</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J18">
-        <v>0.02379786546171301</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.67364816592456</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N18">
-        <v>4.67364816592456</v>
+        <v>55.721141</v>
       </c>
       <c r="O18">
-        <v>0.04171636218071132</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P18">
-        <v>0.04171636218071132</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q18">
-        <v>10.21057795553149</v>
+        <v>78.27496623839355</v>
       </c>
       <c r="R18">
-        <v>10.21057795553149</v>
+        <v>704.4746961455419</v>
       </c>
       <c r="S18">
-        <v>0.0009927603747286607</v>
+        <v>0.006235671287109867</v>
       </c>
       <c r="T18">
-        <v>0.0009927603747286607</v>
+        <v>0.009167544621892032</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.18471258276918</v>
+        <v>4.214287333333333</v>
       </c>
       <c r="H19">
-        <v>2.18471258276918</v>
+        <v>12.642862</v>
       </c>
       <c r="I19">
-        <v>0.02379786546171301</v>
+        <v>0.04423039911512208</v>
       </c>
       <c r="J19">
-        <v>0.02379786546171301</v>
+        <v>0.0533522185565692</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.6552658854129</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N19">
-        <v>39.6552658854129</v>
+        <v>131.041107</v>
       </c>
       <c r="O19">
-        <v>0.3539576312375314</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P19">
-        <v>0.3539576312375314</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q19">
-        <v>86.63535835291897</v>
+        <v>276.122438688039</v>
       </c>
       <c r="R19">
-        <v>86.63535835291897</v>
+        <v>1656.734632128234</v>
       </c>
       <c r="S19">
-        <v>0.008423436087337399</v>
+        <v>0.02199692756698015</v>
       </c>
       <c r="T19">
-        <v>0.008423436087337399</v>
+        <v>0.02155959433286961</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.18471258276918</v>
+        <v>5.925740333333333</v>
       </c>
       <c r="H20">
-        <v>2.18471258276918</v>
+        <v>17.777221</v>
       </c>
       <c r="I20">
-        <v>0.02379786546171301</v>
+        <v>0.06219268864816602</v>
       </c>
       <c r="J20">
-        <v>0.02379786546171301</v>
+        <v>0.07501894587795323</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.752994945328281</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N20">
-        <v>9.752994945328281</v>
+        <v>10.874051</v>
       </c>
       <c r="O20">
-        <v>0.08705393624885213</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P20">
-        <v>0.08705393624885213</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q20">
-        <v>21.3074907767429</v>
+        <v>32.21840129871183</v>
       </c>
       <c r="R20">
-        <v>21.3074907767429</v>
+        <v>193.310407792271</v>
       </c>
       <c r="S20">
-        <v>0.002071697862762724</v>
+        <v>0.002566636174368841</v>
       </c>
       <c r="T20">
-        <v>0.002071697862762724</v>
+        <v>0.002515607443401577</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.925740333333333</v>
+      </c>
+      <c r="H21">
+        <v>17.777221</v>
+      </c>
+      <c r="I21">
+        <v>0.06219268864816602</v>
+      </c>
+      <c r="J21">
+        <v>0.07501894587795323</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>42.07421266666666</v>
+      </c>
+      <c r="N21">
+        <v>126.222638</v>
+      </c>
+      <c r="O21">
+        <v>0.3193593286815545</v>
+      </c>
+      <c r="P21">
+        <v>0.3892403018250912</v>
+      </c>
+      <c r="Q21">
+        <v>249.3208589921108</v>
+      </c>
+      <c r="R21">
+        <v>2243.887730928997</v>
+      </c>
+      <c r="S21">
+        <v>0.01986181529557924</v>
+      </c>
+      <c r="T21">
+        <v>0.0292003971361347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.925740333333333</v>
+      </c>
+      <c r="H22">
+        <v>17.777221</v>
+      </c>
+      <c r="I22">
+        <v>0.06219268864816602</v>
+      </c>
+      <c r="J22">
+        <v>0.07501894587795323</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01285266666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.038558</v>
+      </c>
+      <c r="O22">
+        <v>9.755664427884466E-05</v>
+      </c>
+      <c r="P22">
+        <v>0.0001189036118685134</v>
+      </c>
+      <c r="Q22">
+        <v>0.07616156525755555</v>
+      </c>
+      <c r="R22">
+        <v>0.6854540873179999</v>
+      </c>
+      <c r="S22">
+        <v>6.067310003194073E-06</v>
+      </c>
+      <c r="T22">
+        <v>8.920023623457163E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.925740333333333</v>
+      </c>
+      <c r="H23">
+        <v>17.777221</v>
+      </c>
+      <c r="I23">
+        <v>0.06219268864816602</v>
+      </c>
+      <c r="J23">
+        <v>0.07501894587795323</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1273243333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.381973</v>
+      </c>
+      <c r="O23">
+        <v>0.0009664402740059944</v>
+      </c>
+      <c r="P23">
+        <v>0.001177912996946202</v>
+      </c>
+      <c r="Q23">
+        <v>0.7544909374481111</v>
+      </c>
+      <c r="R23">
+        <v>6.790418437032999</v>
+      </c>
+      <c r="S23">
+        <v>6.010551905830307E-05</v>
+      </c>
+      <c r="T23">
+        <v>8.836579136684483E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.925740333333333</v>
+      </c>
+      <c r="H24">
+        <v>17.777221</v>
+      </c>
+      <c r="I24">
+        <v>0.06219268864816602</v>
+      </c>
+      <c r="J24">
+        <v>0.07501894587795323</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N24">
+        <v>55.721141</v>
+      </c>
+      <c r="O24">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P24">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q24">
+        <v>110.0630042143512</v>
+      </c>
+      <c r="R24">
+        <v>990.5670379291607</v>
+      </c>
+      <c r="S24">
+        <v>0.008768023138614226</v>
+      </c>
+      <c r="T24">
+        <v>0.01289055174142817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.925740333333333</v>
+      </c>
+      <c r="H25">
+        <v>17.777221</v>
+      </c>
+      <c r="I25">
+        <v>0.06219268864816602</v>
+      </c>
+      <c r="J25">
+        <v>0.07501894587795323</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N25">
+        <v>131.041107</v>
+      </c>
+      <c r="O25">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P25">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q25">
+        <v>388.2577865372745</v>
+      </c>
+      <c r="R25">
+        <v>2329.546719223647</v>
+      </c>
+      <c r="S25">
+        <v>0.03093004121054223</v>
+      </c>
+      <c r="T25">
+        <v>0.03031510374199849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.18471258276918</v>
-      </c>
-      <c r="H21">
-        <v>2.18471258276918</v>
-      </c>
-      <c r="I21">
-        <v>0.02379786546171301</v>
-      </c>
-      <c r="J21">
-        <v>0.02379786546171301</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>57.9520249709885</v>
-      </c>
-      <c r="N21">
-        <v>57.9520249709885</v>
-      </c>
-      <c r="O21">
-        <v>0.5172720703329052</v>
-      </c>
-      <c r="P21">
-        <v>0.5172720703329052</v>
-      </c>
-      <c r="Q21">
-        <v>126.6085181510723</v>
-      </c>
-      <c r="R21">
-        <v>126.6085181510723</v>
-      </c>
-      <c r="S21">
-        <v>0.01230997113688423</v>
-      </c>
-      <c r="T21">
-        <v>0.01230997113688423</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>36.230025</v>
+      </c>
+      <c r="H26">
+        <v>108.690075</v>
+      </c>
+      <c r="I26">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J26">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.437025500000001</v>
+      </c>
+      <c r="N26">
+        <v>10.874051</v>
+      </c>
+      <c r="O26">
+        <v>0.04126909818754922</v>
+      </c>
+      <c r="P26">
+        <v>0.03353296176000882</v>
+      </c>
+      <c r="Q26">
+        <v>196.9835697906375</v>
+      </c>
+      <c r="R26">
+        <v>1181.901418743825</v>
+      </c>
+      <c r="S26">
+        <v>0.01569243462124156</v>
+      </c>
+      <c r="T26">
+        <v>0.01538044454157799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>36.230025</v>
+      </c>
+      <c r="H27">
+        <v>108.690075</v>
+      </c>
+      <c r="I27">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J27">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>42.07421266666666</v>
+      </c>
+      <c r="N27">
+        <v>126.222638</v>
+      </c>
+      <c r="O27">
+        <v>0.3193593286815545</v>
+      </c>
+      <c r="P27">
+        <v>0.3892403018250912</v>
+      </c>
+      <c r="Q27">
+        <v>1524.34977676865</v>
+      </c>
+      <c r="R27">
+        <v>13719.14799091785</v>
+      </c>
+      <c r="S27">
+        <v>0.1214353016206894</v>
+      </c>
+      <c r="T27">
+        <v>0.1785314675874405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>36.230025</v>
+      </c>
+      <c r="H28">
+        <v>108.690075</v>
+      </c>
+      <c r="I28">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J28">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01285266666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.038558</v>
+      </c>
+      <c r="O28">
+        <v>9.755664427884466E-05</v>
+      </c>
+      <c r="P28">
+        <v>0.0001189036118685134</v>
+      </c>
+      <c r="Q28">
+        <v>0.4656524346499999</v>
+      </c>
+      <c r="R28">
+        <v>4.19087191185</v>
+      </c>
+      <c r="S28">
+        <v>3.709558312266097E-05</v>
+      </c>
+      <c r="T28">
+        <v>5.453709759446265E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>36.230025</v>
+      </c>
+      <c r="H29">
+        <v>108.690075</v>
+      </c>
+      <c r="I29">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J29">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1273243333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.381973</v>
+      </c>
+      <c r="O29">
+        <v>0.0009664402740059944</v>
+      </c>
+      <c r="P29">
+        <v>0.001177912996946202</v>
+      </c>
+      <c r="Q29">
+        <v>4.612963779775</v>
+      </c>
+      <c r="R29">
+        <v>41.516674017975</v>
+      </c>
+      <c r="S29">
+        <v>0.0003674856364985782</v>
+      </c>
+      <c r="T29">
+        <v>0.0005402691731793579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>36.230025</v>
+      </c>
+      <c r="H30">
+        <v>108.690075</v>
+      </c>
+      <c r="I30">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J30">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N30">
+        <v>55.721141</v>
+      </c>
+      <c r="O30">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P30">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q30">
+        <v>672.9261104861749</v>
+      </c>
+      <c r="R30">
+        <v>6056.334994375574</v>
+      </c>
+      <c r="S30">
+        <v>0.05360776538344861</v>
+      </c>
+      <c r="T30">
+        <v>0.0788129390733911</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>36.230025</v>
+      </c>
+      <c r="H31">
+        <v>108.690075</v>
+      </c>
+      <c r="I31">
+        <v>0.3802466084896404</v>
+      </c>
+      <c r="J31">
+        <v>0.4586664503915251</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N31">
+        <v>131.041107</v>
+      </c>
+      <c r="O31">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P31">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q31">
+        <v>2373.811291318837</v>
+      </c>
+      <c r="R31">
+        <v>14242.86774791303</v>
+      </c>
+      <c r="S31">
+        <v>0.1891065256446396</v>
+      </c>
+      <c r="T31">
+        <v>0.1853467929183418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.1940915</v>
+      </c>
+      <c r="H32">
+        <v>4.388183</v>
+      </c>
+      <c r="I32">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J32">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.437025500000001</v>
+      </c>
+      <c r="N32">
+        <v>10.874051</v>
+      </c>
+      <c r="O32">
+        <v>0.04126909818754922</v>
+      </c>
+      <c r="P32">
+        <v>0.03353296176000882</v>
+      </c>
+      <c r="Q32">
+        <v>11.92933143483325</v>
+      </c>
+      <c r="R32">
+        <v>47.71732573933301</v>
+      </c>
+      <c r="S32">
+        <v>0.0009503343543586243</v>
+      </c>
+      <c r="T32">
+        <v>0.000620960149947411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.1940915</v>
+      </c>
+      <c r="H33">
+        <v>4.388183</v>
+      </c>
+      <c r="I33">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J33">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>42.07421266666666</v>
+      </c>
+      <c r="N33">
+        <v>126.222638</v>
+      </c>
+      <c r="O33">
+        <v>0.3193593286815545</v>
+      </c>
+      <c r="P33">
+        <v>0.3892403018250912</v>
+      </c>
+      <c r="Q33">
+        <v>92.31467238112565</v>
+      </c>
+      <c r="R33">
+        <v>553.888034286754</v>
+      </c>
+      <c r="S33">
+        <v>0.00735412584136751</v>
+      </c>
+      <c r="T33">
+        <v>0.007207914347581942</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.1940915</v>
+      </c>
+      <c r="H34">
+        <v>4.388183</v>
+      </c>
+      <c r="I34">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J34">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01285266666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.038558</v>
+      </c>
+      <c r="O34">
+        <v>9.755664427884466E-05</v>
+      </c>
+      <c r="P34">
+        <v>0.0001189036118685134</v>
+      </c>
+      <c r="Q34">
+        <v>0.02819992668566667</v>
+      </c>
+      <c r="R34">
+        <v>0.169199560114</v>
+      </c>
+      <c r="S34">
+        <v>2.246509728242635E-06</v>
+      </c>
+      <c r="T34">
+        <v>2.201845610405199E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.1940915</v>
+      </c>
+      <c r="H35">
+        <v>4.388183</v>
+      </c>
+      <c r="I35">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J35">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.1273243333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.381973</v>
+      </c>
+      <c r="O35">
+        <v>0.0009664402740059944</v>
+      </c>
+      <c r="P35">
+        <v>0.001177912996946202</v>
+      </c>
+      <c r="Q35">
+        <v>0.2793612375098333</v>
+      </c>
+      <c r="R35">
+        <v>1.676167425059</v>
+      </c>
+      <c r="S35">
+        <v>2.225494217609897E-05</v>
+      </c>
+      <c r="T35">
+        <v>2.181247920906959E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.1940915</v>
+      </c>
+      <c r="H36">
+        <v>4.388183</v>
+      </c>
+      <c r="I36">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J36">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N36">
+        <v>55.721141</v>
+      </c>
+      <c r="O36">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P36">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q36">
+        <v>40.75242727946716</v>
+      </c>
+      <c r="R36">
+        <v>244.514563676803</v>
+      </c>
+      <c r="S36">
+        <v>0.003246488026486839</v>
+      </c>
+      <c r="T36">
+        <v>0.003181942780165444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.1940915</v>
+      </c>
+      <c r="H37">
+        <v>4.388183</v>
+      </c>
+      <c r="I37">
+        <v>0.02302774705761169</v>
+      </c>
+      <c r="J37">
+        <v>0.01851790350019019</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N37">
+        <v>131.041107</v>
+      </c>
+      <c r="O37">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P37">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q37">
+        <v>143.7580895096453</v>
+      </c>
+      <c r="R37">
+        <v>575.032358038581</v>
+      </c>
+      <c r="S37">
+        <v>0.01145229738349438</v>
+      </c>
+      <c r="T37">
+        <v>0.007483071897675918</v>
       </c>
     </row>
   </sheetData>
